--- a/outputs-r202/test-g__Ruminococcus_E.xlsx
+++ b/outputs-r202/test-g__Ruminococcus_E.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
   <si>
     <t>Row</t>
   </si>
@@ -304,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -314,14 +314,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,2127 +419,2127 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.0020985064960748734</v>
+        <v>5.4514942576740149e-13</v>
       </c>
       <c r="C2">
-        <v>0.9979014921045033</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="D2">
-        <v>9.417889256556467e-10</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="E2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="F2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="G2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="H2">
-        <v>4.5603399652412116e-10</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="I2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="J2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="K2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="L2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="M2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="N2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="O2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="P2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="Q2">
-        <v>2.2203851225152171e-14</v>
+        <v>0.99999997003041596</v>
       </c>
       <c r="R2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.9967417928013185e-08</v>
       </c>
       <c r="S2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="T2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="U2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="V2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="W2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="X2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="Y2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="Z2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AA2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AB2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AC2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AD2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AE2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AF2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AG2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AH2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AI2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AJ2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AK2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AL2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AM2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AN2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AO2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AP2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AQ2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AR2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AS2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AT2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AU2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AV2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AW2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AX2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AY2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="AZ2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BA2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BB2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BC2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BD2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BE2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BF2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BG2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BH2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BI2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BJ2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BK2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BL2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BM2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BN2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BO2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BP2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BQ2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BR2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BS2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BT2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BU2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BV2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BW2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BX2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BY2">
-        <v>2.2203851225152171e-14</v>
+        <v>2.2204460483746617e-14</v>
       </c>
       <c r="BZ2">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1.156515281121718e-12</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="C3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="D3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="E3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="F3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="G3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="H3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="I3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="J3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="K3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="L3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="M3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="N3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="O3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="P3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="Q3">
-        <v>0.98840512395865332</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="R3">
-        <v>5.3874152077670918e-07</v>
+        <v>5.8217584342101895e-05</v>
       </c>
       <c r="S3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="T3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="U3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="V3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="W3">
-        <v>9.3284817047225187e-12</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="X3">
-        <v>2.2202300738953922e-14</v>
+        <v>0.99994178241401466</v>
       </c>
       <c r="Y3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="Z3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AA3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AB3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AC3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AD3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AE3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AF3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AG3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AH3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AI3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AJ3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AK3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AL3">
-        <v>0.011594337287764371</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AM3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AN3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AO3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AP3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AQ3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AR3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AS3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AT3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AU3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AV3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AW3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AX3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AY3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="AZ3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BA3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BB3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BC3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BD3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BE3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BF3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BG3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BH3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BI3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BJ3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BK3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BL3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BM3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BN3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BO3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BP3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BQ3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BR3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BS3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BT3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BU3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BV3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BW3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BX3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BY3">
-        <v>2.2202300738953922e-14</v>
+        <v>2.2204443486380488e-14</v>
       </c>
       <c r="BZ3">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2.2204442806693527e-14</v>
+        <v>6.3867440251792623e-13</v>
       </c>
       <c r="C4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="D4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="E4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="F4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="G4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="H4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="I4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="J4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="K4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="L4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="M4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="N4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="O4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="P4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="Q4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="R4">
-        <v>6.0544798773260089e-05</v>
+        <v>3.651944577092675e-05</v>
       </c>
       <c r="S4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="T4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="U4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="V4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="W4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="X4">
-        <v>0.9999394551995836</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="Y4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="Z4">
-        <v>2.2204442806693527e-14</v>
+        <v>0.9999634805519696</v>
       </c>
       <c r="AA4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AB4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AC4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AD4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AE4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AF4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AG4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AH4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AI4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AJ4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AK4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AL4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AM4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AN4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AO4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AP4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AQ4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AR4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AS4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AT4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AU4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AV4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AW4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AX4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AY4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="AZ4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BA4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BB4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BC4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BD4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BE4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BF4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BG4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BH4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BI4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BJ4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BK4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BL4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BM4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BN4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BO4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BP4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BQ4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BR4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BS4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BT4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BU4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BV4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BW4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BX4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BY4">
-        <v>2.2204442806693527e-14</v>
+        <v>2.2204449824000266e-14</v>
       </c>
       <c r="BZ4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1.7183023437230441e-12</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="C5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="D5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="E5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="F5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="G5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="H5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="I5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="J5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="K5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="L5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="M5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="N5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="O5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="P5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="Q5">
-        <v>2.2204441002465378e-14</v>
+        <v>0.99999997345299074</v>
       </c>
       <c r="R5">
-        <v>6.6722541772550693e-05</v>
+        <v>2.6544562686130416e-08</v>
       </c>
       <c r="S5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="T5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="U5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="V5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="W5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="X5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="Y5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="Z5">
-        <v>0.99993327745488814</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AA5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AB5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AC5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AD5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AE5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AF5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AG5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AH5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AI5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AJ5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AK5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AL5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AM5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AN5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AO5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AP5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AQ5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AR5">
-        <v>2.2204441002465378e-14</v>
+        <v>8.2557320195580597e-13</v>
       </c>
       <c r="AS5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AT5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AU5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AV5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AW5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AX5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AY5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="AZ5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BA5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BB5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BC5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BD5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BE5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BF5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BG5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BH5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BI5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BJ5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BK5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BL5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BM5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BN5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BO5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BP5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BQ5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BR5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BS5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BT5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BU5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BV5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BW5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BX5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BY5">
-        <v>2.2204441002465378e-14</v>
+        <v>2.2204460484746596e-14</v>
       </c>
       <c r="BZ5">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2.5042916454927253e-10</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="C6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="D6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="E6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="F6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="G6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="H6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="I6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="J6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="K6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="L6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="M6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="N6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="O6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="P6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="Q6">
-        <v>0.99999274452248976</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="R6">
-        <v>7.1217501369702963e-06</v>
+        <v>6.046282051521944e-05</v>
       </c>
       <c r="S6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="T6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="U6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="V6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="W6">
-        <v>1.3347534546205851e-07</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="X6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="Y6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="Z6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AA6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AB6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AC6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AD6">
-        <v>2.2204458372759602e-14</v>
+        <v>0.99993953717784179</v>
       </c>
       <c r="AE6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AF6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AG6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AH6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AI6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AJ6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AK6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AL6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AM6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AN6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AO6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AP6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AQ6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AR6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AS6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AT6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AU6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AV6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AW6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AX6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AY6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="AZ6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BA6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BB6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BC6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BD6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BE6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BF6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BG6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BH6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BI6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BJ6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BK6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BL6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BM6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BN6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BO6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BP6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BQ6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BR6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BS6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BT6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BU6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BV6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BW6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BX6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BY6">
-        <v>2.2204458372759602e-14</v>
+        <v>2.2204442830635973e-14</v>
       </c>
       <c r="BZ6">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2.2204357667395275e-14</v>
+        <v>3.6185548705359728e-13</v>
       </c>
       <c r="C7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="D7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="E7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="F7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="G7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="H7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="I7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="J7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="K7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="L7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="M7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="N7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="O7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="P7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="Q7">
-        <v>2.2204357667395275e-14</v>
+        <v>0.99999995838359701</v>
       </c>
       <c r="R7">
-        <v>0.00035231391405561731</v>
+        <v>4.1614420283070953e-08</v>
       </c>
       <c r="S7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="T7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="U7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="V7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="W7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="X7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="Y7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="Z7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AA7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AB7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AC7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AD7">
-        <v>0.99964768608430121</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AE7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AF7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AG7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AH7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AI7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AJ7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AK7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AL7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AM7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AN7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AO7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AP7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AQ7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AR7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AS7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AT7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AU7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AV7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AW7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AX7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AY7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="AZ7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BA7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BB7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BC7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BD7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BE7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BF7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BG7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BH7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BI7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BJ7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BK7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BL7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BM7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BN7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BO7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BP7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BQ7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BR7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BS7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BT7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BU7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BV7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BW7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BX7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BY7">
-        <v>2.2204357667395275e-14</v>
+        <v>2.220446048034384e-14</v>
       </c>
       <c r="BZ7">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>2.1048714780639191e-10</v>
+        <v>1.7045109299365009e-12</v>
       </c>
       <c r="C8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="D8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="E8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="F8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="G8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="H8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="I8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="J8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="K8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="L8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="M8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="N8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="O8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="P8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="Q8">
-        <v>0.98840314871314439</v>
+        <v>0.98840550016553541</v>
       </c>
       <c r="R8">
-        <v>3.1412430485399356e-06</v>
+        <v>2.598639996279611e-08</v>
       </c>
       <c r="S8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="T8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="U8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="V8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="W8">
-        <v>8.9521463357887405e-08</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="X8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="Y8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="Z8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AA8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AB8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AC8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AD8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AE8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AF8">
-        <v>2.2202300740513102e-14</v>
+        <v>0.011594473844761628</v>
       </c>
       <c r="AG8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AH8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AI8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AJ8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AK8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AL8">
-        <v>0.011593620310280236</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AM8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AN8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AO8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AP8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AQ8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AR8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AS8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AT8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AU8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AV8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AW8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AX8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AY8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="AZ8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BA8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BB8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BC8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BD8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BE8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BF8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BG8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BH8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BI8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BJ8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BK8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BL8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BM8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BN8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BO8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BP8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BQ8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BR8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BS8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BT8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BU8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BV8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BW8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BX8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BY8">
-        <v>2.2202300740513102e-14</v>
+        <v>2.2202300738671617e-14</v>
       </c>
       <c r="BZ8">
         <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>2.220444674656225e-14</v>
+        <v>1.4405683664876324e-11</v>
       </c>
       <c r="C9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="D9">
-        <v>3.3303799201215129e-08</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="E9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="F9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="G9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="H9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="I9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="J9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="K9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="L9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="M9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="N9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="O9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="P9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="Q9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="R9">
-        <v>4.7022029889524956e-05</v>
+        <v>3.0784007610029974e-06</v>
       </c>
       <c r="S9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="T9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="U9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="V9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="W9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="X9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="Y9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="Z9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AA9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AB9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AC9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AD9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AE9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AF9">
-        <v>0.9999529446646902</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AG9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AH9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AI9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AJ9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AK9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AL9">
-        <v>2.220444674656225e-14</v>
+        <v>0.99999692158321241</v>
       </c>
       <c r="AM9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AN9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AO9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AP9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AQ9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AR9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AS9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AT9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AU9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AV9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AW9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AX9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AY9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="AZ9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BA9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BB9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BC9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BD9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BE9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BF9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BG9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BH9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BI9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BJ9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BK9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BL9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BM9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BN9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BO9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BP9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BQ9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BR9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BS9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BT9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BU9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BV9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BW9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BX9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BY9">
-        <v>2.220444674656225e-14</v>
+        <v>2.2204459593108497e-14</v>
       </c>
       <c r="BZ9">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
